--- a/인게임 시스템/전투 시스템.xlsx
+++ b/인게임 시스템/전투 시스템.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\바탕 화면\CCIT_02\Project\인게임\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\인게임 시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA54BE8-E844-4EEC-AA68-1E590209AE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0899E117-EB33-40EB-9185-F6E5F7C8A169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="전투 타입" sheetId="3" r:id="rId3"/>
     <sheet name="페이즈" sheetId="4" r:id="rId4"/>
     <sheet name="레벨 디자인" sheetId="5" r:id="rId5"/>
+    <sheet name="늑대 유닛 데이터 테이블" sheetId="6" r:id="rId6"/>
+    <sheet name="양 유닛 데이터 테이블" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>유닛 생산 이후 흐름도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,15 +304,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등장 유닛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 디자인 테이블의 유닛은 가장 앞의 유닛부터 한마리씩 순차적으로 생성됩니다.(생성 딜레이 1초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 타입(Dmg Type)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 타일맵 1칸거리를 기준으로 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 1초를 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +480,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -426,6 +554,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3857,10 +3989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3985,6 +4117,86 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4091,7 +4303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CEE5F7-548D-4E43-87E9-582A834E13C2}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -4469,93 +4681,101 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CF9F71-7C97-40EC-B9D3-DF118C03A0A6}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="25.625" customWidth="1"/>
+    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="25.625" customWidth="1"/>
+    <col min="13" max="13" width="10.625" customWidth="1"/>
+    <col min="14" max="15" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="B1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="C2" s="7">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="7">
-        <f>C2+E2+G2+I2+K2+M2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="7"/>
@@ -4570,13 +4790,9 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="7">
-        <f t="shared" ref="N3:N31" si="0">C3+E3+G3+I3+K3+M3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
       <c r="B4" s="7"/>
@@ -4591,13 +4807,9 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
       <c r="B5" s="7"/>
@@ -4612,13 +4824,9 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
       <c r="B6" s="7"/>
@@ -4633,13 +4841,9 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="7"/>
@@ -4654,13 +4858,9 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="7"/>
@@ -4675,13 +4875,9 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
       <c r="B9" s="7"/>
@@ -4696,13 +4892,9 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="7"/>
@@ -4717,13 +4909,9 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="7"/>
@@ -4738,13 +4926,9 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
       <c r="B12" s="7"/>
@@ -4759,13 +4943,9 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="7"/>
@@ -4780,13 +4960,9 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
@@ -4801,13 +4977,9 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="7"/>
@@ -4822,13 +4994,9 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="7"/>
@@ -4843,13 +5011,9 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="7"/>
@@ -4864,13 +5028,9 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
       <c r="B18" s="7"/>
@@ -4885,13 +5045,9 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="7"/>
@@ -4906,13 +5062,9 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
       <c r="B20" s="7"/>
@@ -4927,13 +5079,9 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
       <c r="B21" s="7"/>
@@ -4948,13 +5096,9 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
       <c r="B22" s="7"/>
@@ -4969,13 +5113,9 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="7"/>
@@ -4990,13 +5130,9 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
       <c r="B24" s="7"/>
@@ -5011,13 +5147,9 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="7"/>
@@ -5032,13 +5164,9 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="7"/>
@@ -5053,13 +5181,9 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="7"/>
@@ -5074,13 +5198,9 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
-      <c r="N27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="7"/>
@@ -5095,13 +5215,9 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
-      <c r="N28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29" s="7"/>
@@ -5116,13 +5232,9 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
-      <c r="N29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
       <c r="B30" s="7"/>
@@ -5137,13 +5249,9 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="B31" s="7"/>
@@ -5158,14 +5266,530 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-      <c r="N31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD34A9DB-7F2F-47A7-BF16-CD7B68770E0A}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768595A2-BE58-4854-A8BE-75A6978A83BA}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/인게임 시스템/전투 시스템.xlsx
+++ b/인게임 시스템/전투 시스템.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Sheperd_Holidays\인게임 시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0899E117-EB33-40EB-9185-F6E5F7C8A169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E09C4C-6A1C-4DC4-984D-58C39A7DB706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>유닛 생산 이후 흐름도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,46 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unit_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,6 +393,22 @@
   </si>
   <si>
     <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,7 +531,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3991,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -4130,7 +4105,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4138,15 +4113,15 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4180,22 +4155,22 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4681,101 +4656,71 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CF9F71-7C97-40EC-B9D3-DF118C03A0A6}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="10.625" customWidth="1"/>
-    <col min="10" max="10" width="25.625" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="25.625" customWidth="1"/>
-    <col min="13" max="13" width="10.625" customWidth="1"/>
-    <col min="14" max="15" width="9" style="11"/>
+    <col min="2" max="10" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="G1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>96</v>
+      <c r="B2" s="7">
+        <v>5</v>
       </c>
       <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="7">
-        <v>5</v>
-      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="7"/>
@@ -4787,12 +4732,9 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="7"/>
@@ -4804,12 +4746,9 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="7"/>
@@ -4821,12 +4760,9 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="7"/>
@@ -4838,12 +4774,9 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="7"/>
@@ -4855,12 +4788,9 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="7"/>
@@ -4872,12 +4802,9 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="7"/>
@@ -4889,12 +4816,9 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="7"/>
@@ -4906,12 +4830,9 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="7"/>
@@ -4923,12 +4844,9 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="7"/>
@@ -4940,12 +4858,9 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="7"/>
@@ -4957,12 +4872,9 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="7"/>
@@ -4974,12 +4886,9 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="7"/>
@@ -4991,12 +4900,9 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="7"/>
@@ -5008,12 +4914,9 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="7"/>
@@ -5025,12 +4928,9 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="7"/>
@@ -5042,12 +4942,9 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="7"/>
@@ -5059,12 +4956,9 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="7"/>
@@ -5076,12 +4970,9 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="7"/>
@@ -5093,12 +4984,9 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="7"/>
@@ -5110,12 +4998,9 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="7"/>
@@ -5127,12 +5012,9 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="7"/>
@@ -5144,12 +5026,9 @@
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="13">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="7"/>
@@ -5161,12 +5040,9 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="13">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="7"/>
@@ -5178,12 +5054,9 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="13">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="B27" s="7"/>
@@ -5195,12 +5068,9 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="13">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="7"/>
@@ -5212,12 +5082,9 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="13">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="7"/>
@@ -5229,12 +5096,9 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="13">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="7"/>
@@ -5246,12 +5110,9 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="13">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="7"/>
@@ -5263,9 +5124,6 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5290,33 +5148,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -5342,7 +5200,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -5368,7 +5226,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -5544,28 +5402,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
